--- a/data/Statistic.xlsx
+++ b/data/Statistic.xlsx
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -505,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -560,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -571,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -582,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -593,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -604,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -615,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -637,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -670,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -681,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -692,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -703,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -725,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -736,7 +736,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>814</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -758,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>815</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -769,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:3">
